--- a/Data_analysis/직장인을 위한 실무 엑셀/Chapter01/Section02/천단위숫자생략(준비).xlsx
+++ b/Data_analysis/직장인을 위한 실무 엑셀/Chapter01/Section02/천단위숫자생략(준비).xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2_집필원고\직장인실무2019\Part1\Section02\02_Sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song-yonghun/Study/Data_analysis/직장인을 위한 실무 엑셀/Chapter01/Section02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21636BED-BC36-4BC4-96E0-E454C5C3B445}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECEC7CC-622D-A243-996E-8C9E2597EFDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6850" xr2:uid="{638F02DF-37A7-44B4-B3B8-C4BF114DF323}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30480" windowHeight="19980" xr2:uid="{638F02DF-37A7-44B4-B3B8-C4BF114DF323}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -51,7 +62,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="#,##0,"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,41 +192,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -530,248 +544,248 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79223F90-03A6-4549-9ADD-C66BBF16AB1F}">
   <dimension ref="B1:E18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="187" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.08203125" customWidth="1"/>
-    <col min="2" max="2" width="15.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="12" t="s">
+    <row r="1" spans="2:5" ht="9.75" customHeight="1"/>
+    <row r="2" spans="2:5" ht="24.75" customHeight="1">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" spans="2:5" ht="17" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="2:5" ht="17" x14ac:dyDescent="0.45"/>
-    <row r="5" spans="2:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="10" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="2:5" ht="17"/>
+    <row r="4" spans="2:5" ht="17"/>
+    <row r="5" spans="2:5" ht="18" thickBot="1">
+      <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="7">
+    <row r="6" spans="2:5" ht="18" thickTop="1">
+      <c r="B6" s="4">
         <v>43523</v>
       </c>
       <c r="C6" s="1">
         <v>320</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="10">
         <f>C6*12500</f>
         <v>4000000</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="10">
         <f>SUM($D$6:D6)</f>
         <v>4000000</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="17" x14ac:dyDescent="0.45">
-      <c r="B7" s="8">
+    <row r="7" spans="2:5" ht="17">
+      <c r="B7" s="5">
         <v>43524</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>520</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="11">
         <f t="shared" ref="D7:D18" si="0">C7*12500</f>
         <v>6500000</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="11">
         <f>SUM($D$6:D7)</f>
         <v>10500000</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="17" x14ac:dyDescent="0.45">
-      <c r="B8" s="9">
+    <row r="8" spans="2:5" ht="17">
+      <c r="B8" s="6">
         <v>43525</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>320</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="12">
         <f t="shared" si="0"/>
         <v>4000000</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="12">
         <f>SUM($D$6:D8)</f>
         <v>14500000</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="17" x14ac:dyDescent="0.45">
-      <c r="B9" s="8">
+    <row r="9" spans="2:5" ht="17">
+      <c r="B9" s="5">
         <v>43526</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>350</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="11">
         <f t="shared" si="0"/>
         <v>4375000</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="11">
         <f>SUM($D$6:D9)</f>
         <v>18875000</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="17" x14ac:dyDescent="0.45">
-      <c r="B10" s="9">
+    <row r="10" spans="2:5" ht="17">
+      <c r="B10" s="6">
         <v>43527</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <v>215</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="12">
         <f t="shared" si="0"/>
         <v>2687500</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="12">
         <f>SUM($D$6:D10)</f>
         <v>21562500</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="17" x14ac:dyDescent="0.45">
-      <c r="B11" s="8">
+    <row r="11" spans="2:5" ht="17">
+      <c r="B11" s="5">
         <v>43528</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>230</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="11">
         <f t="shared" si="0"/>
         <v>2875000</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="11">
         <f>SUM($D$6:D11)</f>
         <v>24437500</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="17" x14ac:dyDescent="0.45">
-      <c r="B12" s="9">
+    <row r="12" spans="2:5" ht="17">
+      <c r="B12" s="6">
         <v>43529</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="3">
         <v>251</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="12">
         <f t="shared" si="0"/>
         <v>3137500</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="12">
         <f>SUM($D$6:D12)</f>
         <v>27575000</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="17" x14ac:dyDescent="0.45">
-      <c r="B13" s="8">
+    <row r="13" spans="2:5" ht="17">
+      <c r="B13" s="5">
         <v>43530</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>211</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="11">
         <f t="shared" si="0"/>
         <v>2637500</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="11">
         <f>SUM($D$6:D13)</f>
         <v>30212500</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="17" x14ac:dyDescent="0.45">
-      <c r="B14" s="9">
+    <row r="14" spans="2:5" ht="17">
+      <c r="B14" s="6">
         <v>43531</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="3">
         <v>350</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="12">
         <f t="shared" si="0"/>
         <v>4375000</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="12">
         <f>SUM($D$6:D14)</f>
         <v>34587500</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="17" x14ac:dyDescent="0.45">
-      <c r="B15" s="8">
+    <row r="15" spans="2:5" ht="17">
+      <c r="B15" s="5">
         <v>43532</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>215</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="11">
         <f t="shared" si="0"/>
         <v>2687500</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="11">
         <f>SUM($D$6:D15)</f>
         <v>37275000</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="17" x14ac:dyDescent="0.45">
-      <c r="B16" s="9">
+    <row r="16" spans="2:5" ht="17">
+      <c r="B16" s="6">
         <v>43533</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="3">
         <v>130</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="12">
         <f t="shared" si="0"/>
         <v>1625000</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="12">
         <f>SUM($D$6:D16)</f>
         <v>38900000</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="17" x14ac:dyDescent="0.45">
-      <c r="B17" s="8">
+    <row r="17" spans="2:5" ht="17">
+      <c r="B17" s="5">
         <v>43534</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>245</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="11">
         <f t="shared" si="0"/>
         <v>3062500</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="11">
         <f>SUM($D$6:D17)</f>
         <v>41962500</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="17" x14ac:dyDescent="0.45">
-      <c r="B18" s="9">
+    <row r="18" spans="2:5" ht="17">
+      <c r="B18" s="6">
         <v>43535</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="3">
         <v>320</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="12">
         <f t="shared" si="0"/>
         <v>4000000</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="12">
         <f>SUM($D$6:D18)</f>
         <v>45962500</v>
       </c>
